--- a/Brain/Outsystems/Web Developer Specialization/Brain/Huhuhuhuhuuhuhuh.xlsx
+++ b/Brain/Outsystems/Web Developer Specialization/Brain/Huhuhuhuhuuhuhuh.xlsx
@@ -5,15 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\duong\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\duong\OneDrive\Máy tính\Study\Brain\Outsystems\Web Developer Specialization\Brain\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D09D1F2-6633-48BB-8552-51A8D925081B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84D15053-26F1-476E-AD83-A10DF178AC36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Deploying OutSystems on-premise" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -365,6 +366,99 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>513857</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>152202</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D57A14AA-7D6F-FE08-FE3C-324BADF9D2C1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="3942857" cy="1580952"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>436809</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>104018</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E6D120B-C388-A89A-239F-B08EF7E340F2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2743200" y="2381250"/>
+          <a:ext cx="10723809" cy="6057143"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -630,8 +724,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="T88" sqref="T88"/>
+    <sheetView topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="Q106" sqref="Q106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -699,4 +793,20 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8069C65-6CF6-4505-AFD0-BAD79CFF3EFD}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N6" sqref="N6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>